--- a/bp.xlsx
+++ b/bp.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17810" windowHeight="6100"/>
   </bookViews>
   <sheets>
-    <sheet name="active" sheetId="20" r:id="rId1"/>
+    <sheet name="active" sheetId="21" r:id="rId1"/>
     <sheet name="rules_std" sheetId="7" r:id="rId2"/>
     <sheet name="speed" sheetId="14" r:id="rId3"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="89">
   <si>
     <t>Description</t>
   </si>
@@ -287,12 +287,18 @@
   </si>
   <si>
     <t xml:space="preserve">Check zones for multiple initiators that are permitted to communicate with each other. </t>
+  </si>
+  <si>
+    <t>err_log(10080,warning,error,critical)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate the error log. The number in parenthesis (time,level, level, ...) where: time is the lookback number of seconds from the date of collection and level is one or more of the severity-level-type (info|warning|error|critical|debug) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,31 +726,31 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -752,32 +758,32 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -785,64 +791,64 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>55</v>
+      <c r="A21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -850,21 +856,21 @@
         <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -872,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -883,48 +889,48 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -932,10 +938,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -943,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -954,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -965,10 +971,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -976,10 +982,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -987,10 +993,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -998,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1009,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1020,21 +1026,21 @@
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -1042,75 +1048,86 @@
         <v>1</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A33:A49 A52:A53 A13:A19 A4:A6 A24:A30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A54 A35:A51 A26:A32 A4:A6 A14:A21 A9:A11">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1121,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1217,31 +1234,31 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1249,32 +1266,32 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1282,64 +1299,64 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>55</v>
+      <c r="A21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -1347,21 +1364,21 @@
         <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -1369,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -1380,48 +1397,48 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -1429,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -1440,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1451,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -1462,10 +1479,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1473,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1484,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -1495,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1506,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1517,21 +1534,21 @@
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -1539,21 +1556,21 @@
         <v>1</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1561,53 +1578,64 @@
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A33:A49 A52:A53 A13:A19 A4:A6 A24:A30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A54 A35:A51 A26:A32 A4:A6 A14:A21 A9:A11">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1618,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1714,31 +1742,31 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1746,32 +1774,32 @@
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1779,53 +1807,53 @@
         <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>55</v>
+      <c r="A21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -1833,21 +1861,21 @@
         <v>0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="b">
         <v>0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -1855,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -1866,81 +1894,81 @@
         <v>0</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -1948,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1959,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1970,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -1981,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1992,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -2003,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -2014,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -2025,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -2036,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -2047,53 +2075,64 @@
         <v>0</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A33:A49 A52:A53 A13:A19 A4:A6 A25:A30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A54 A35:A51 A27:A32 A4:A6 A14:A21 A9:A11">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>

--- a/bp.xlsx
+++ b/bp.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jc404225\Documents\Broadcom\Scripting\FOS_Automation\applications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack_\Documents\scripting\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ADDC3C-4208-43C6-B96C-093C3E0B99D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17810" windowHeight="6100"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="active" sheetId="21" r:id="rId1"/>
+    <sheet name="active" sheetId="20" r:id="rId1"/>
     <sheet name="rules_std" sheetId="7" r:id="rId2"/>
     <sheet name="speed" sheetId="14" r:id="rId3"/>
   </sheets>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="90">
   <si>
     <t>Description</t>
   </si>
@@ -289,16 +290,19 @@
     <t xml:space="preserve">Check zones for multiple initiators that are permitted to communicate with each other. </t>
   </si>
   <si>
-    <t>err_log(10080,warning,error,critical)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluate the error log. The number in parenthesis (time,level, level, ...) where: time is the lookback number of seconds from the date of collection and level is one or more of the severity-level-type (info|warning|error|critical|debug) </t>
+    <t>err_log(86400,earning,error,critical)</t>
+  </si>
+  <si>
+    <t>Evalutae the error log. In parenthesis is (time,level,level,..) where time is the lookback number of seconds from the date of the collection and level is one or more of the severity-level-type (info|warning|error|critical|debug)</t>
+  </si>
+  <si>
+    <t>min_firmware(8.2.3d)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -629,21 +633,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="76.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="76.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -654,18 +658,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="b">
         <v>1</v>
       </c>
@@ -676,7 +680,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="b">
         <v>1</v>
       </c>
@@ -687,7 +691,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="b">
         <v>1</v>
       </c>
@@ -698,13 +702,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="b">
         <v>1</v>
       </c>
@@ -715,7 +719,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="b">
         <v>0</v>
       </c>
@@ -726,7 +730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="b">
         <v>1</v>
       </c>
@@ -737,12 +741,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="b">
         <v>1</v>
       </c>
@@ -753,7 +757,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="b">
         <v>1</v>
       </c>
@@ -764,7 +768,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="b">
         <v>1</v>
       </c>
@@ -775,7 +779,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="b">
         <v>1</v>
       </c>
@@ -786,7 +790,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="b">
         <v>1</v>
       </c>
@@ -797,7 +801,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="b">
         <v>1</v>
       </c>
@@ -808,7 +812,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="b">
         <v>1</v>
       </c>
@@ -819,7 +823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="b">
         <v>0</v>
       </c>
@@ -830,30 +834,30 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>34</v>
@@ -862,7 +866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="b">
         <v>0</v>
       </c>
@@ -873,7 +877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="b">
         <v>1</v>
       </c>
@@ -884,7 +888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="b">
         <v>1</v>
       </c>
@@ -895,7 +899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="b">
         <v>1</v>
       </c>
@@ -906,7 +910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="b">
         <v>1</v>
       </c>
@@ -917,12 +921,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="b">
         <v>1</v>
       </c>
@@ -933,7 +937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="b">
         <v>1</v>
       </c>
@@ -944,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="b">
         <v>1</v>
       </c>
@@ -955,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="b">
         <v>1</v>
       </c>
@@ -966,7 +970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="b">
         <v>1</v>
       </c>
@@ -977,7 +981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="b">
         <v>1</v>
       </c>
@@ -988,7 +992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="b">
         <v>1</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="b">
         <v>1</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="b">
         <v>1</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="b">
         <v>1</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="b">
         <v>1</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="b">
         <v>1</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="b">
         <v>0</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="b">
         <v>1</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="b">
         <v>1</v>
       </c>
@@ -1087,9 +1091,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>30</v>
@@ -1098,7 +1102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="b">
         <v>0</v>
       </c>
@@ -1109,14 +1113,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>74</v>
@@ -1127,7 +1131,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A54 A35:A51 A26:A32 A4:A6 A14:A21 A9:A11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A11 A35:A51 A4:A6 A26:A32 A14:A21 A54" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1137,21 +1141,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="76.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="76.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1162,18 +1166,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="b">
         <v>1</v>
       </c>
@@ -1184,7 +1188,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="b">
         <v>1</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="b">
         <v>1</v>
       </c>
@@ -1206,13 +1210,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="b">
         <v>1</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="b">
         <v>0</v>
       </c>
@@ -1234,408 +1238,397 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="b">
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="b">
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="b">
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="b">
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="b">
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B53" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A54 A35:A51 A26:A32 A4:A6 A14:A21 A9:A11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A33:A49 A52:A53 A13:A19 A4:A6 A24:A30" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1645,21 +1638,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="76.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="76.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1670,18 +1663,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="b">
         <v>0</v>
       </c>
@@ -1692,7 +1685,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="b">
         <v>0</v>
       </c>
@@ -1703,7 +1696,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="b">
         <v>0</v>
       </c>
@@ -1714,13 +1707,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="b">
         <v>0</v>
       </c>
@@ -1731,7 +1724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="b">
         <v>0</v>
       </c>
@@ -1742,397 +1735,386 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="b">
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="b">
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="b">
         <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="b">
         <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="b">
         <v>0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B53" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A54 A35:A51 A27:A32 A4:A6 A14:A21 A9:A11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A33:A49 A52:A53 A13:A19 A4:A6 A25:A30" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>

--- a/bp.xlsx
+++ b/bp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack_\Documents\scripting\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ADDC3C-4208-43C6-B96C-093C3E0B99D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF99839-B291-4EDA-8A02-67B548A4449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="active" sheetId="20" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="90">
   <si>
     <t>Description</t>
   </si>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,31 +1238,31 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1270,97 +1270,97 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>55</v>
+      <c r="A21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,32 +1368,32 @@
         <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,59 +1401,59 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,21 +1461,21 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="b">
         <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1483,10 +1483,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1494,10 +1494,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1516,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,10 +1527,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,21 +1538,21 @@
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,21 +1560,21 @@
         <v>1</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,53 +1582,75 @@
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A33:A49 A52:A53 A13:A19 A4:A6 A24:A30" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26:A32 A35:A51 A54:A55 A9:A11 A4:A6 A14:A21" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1639,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,31 +1757,31 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1767,86 +1789,86 @@
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>55</v>
+      <c r="A21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1854,32 +1876,32 @@
         <v>0</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,81 +1909,81 @@
         <v>0</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2002,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2013,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2024,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2046,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2057,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2068,53 +2090,75 @@
         <v>0</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A33:A49 A52:A53 A13:A19 A4:A6 A25:A30" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27:A32 A35:A51 A54:A55 A9:A11 A4:A6 A14:A21" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>

--- a/bp.xlsx
+++ b/bp.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack_\Documents\scripting\applications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Consoli\Documents\cs\scripts\brocade-rest-api-applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF99839-B291-4EDA-8A02-67B548A4449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052BA93D-D625-4EC6-ACEF-22C6ECF9DAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="active" sheetId="20" r:id="rId1"/>
+    <sheet name="active" sheetId="23" r:id="rId1"/>
     <sheet name="rules_std" sheetId="7" r:id="rId2"/>
     <sheet name="speed" sheetId="14" r:id="rId3"/>
+    <sheet name="supportshow" sheetId="21" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="99">
   <si>
     <t>Description</t>
   </si>
@@ -209,24 +210,6 @@
     <t>master_zone_check</t>
   </si>
   <si>
-    <t>Performs a zone check. WARNING: This list is processed in order. All zone enable rules are False by default. For example, if you move the peer_property rule to a row after this one, peer properties will not get checked even if it's set True.</t>
-  </si>
-  <si>
-    <t>Enables check for peer property WWNs in a zone.</t>
-  </si>
-  <si>
-    <t>Enables check to ensure that the defined zone matches the effective zone</t>
-  </si>
-  <si>
-    <t>Enables checks to see if there is an alias for a WWN anytime a WWN is used in a zone definition.</t>
-  </si>
-  <si>
-    <t>Enables checks for zones defined with a mix of WWNs and aliases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enables checks zones for for multiple initiators. In peer zones, it only checks to ensure </t>
-  </si>
-  <si>
     <t>chassis_fru_check</t>
   </si>
   <si>
@@ -290,13 +273,58 @@
     <t xml:space="preserve">Check zones for multiple initiators that are permitted to communicate with each other. </t>
   </si>
   <si>
-    <t>err_log(86400,earning,error,critical)</t>
-  </si>
-  <si>
-    <t>Evalutae the error log. In parenthesis is (time,level,level,..) where time is the lookback number of seconds from the date of the collection and level is one or more of the severity-level-type (info|warning|error|critical|debug)</t>
-  </si>
-  <si>
-    <t>min_firmware(8.2.3d)</t>
+    <t>min_firmware(9.2.1c)</t>
+  </si>
+  <si>
+    <t>err_log(86400,warning,error,critical)</t>
+  </si>
+  <si>
+    <t>Evaluate the error log. In parenthesis is (time,level,level,..). "time" is the lookback number of seconds from the date of the collection. "level" is one or more of the severity-level-type (info|warning|error|critical|debug).</t>
+  </si>
+  <si>
+    <t>Performs a zone check. WARNING: This list is processed in order. The "Check" for all zone rules is False by default. For example, if you move the peer_property rule to a row after this one, peer properties will not get checked even if it's set True because at the time "master_zone_check" is processed, it defaulted to False.</t>
+  </si>
+  <si>
+    <t>Checks to ensure that the second fabric discovery (FDISC) takes precedence over the first WWN when there is a duplicate WWN logged into the fabric. This should be True when using storage with persistent failover enable.</t>
+  </si>
+  <si>
+    <t>min_firmware(9.1.1b)</t>
+  </si>
+  <si>
+    <t>wwn_in_zone</t>
+  </si>
+  <si>
+    <t>Check for peer property WWNs in a zone.</t>
+  </si>
+  <si>
+    <t>Check to ensure that the defined zone matches the effective zone</t>
+  </si>
+  <si>
+    <t>Checks to see if there is an alias for a WWN anytime a WWN is used in a zone definition.</t>
+  </si>
+  <si>
+    <t>Checks for zones defined with a mix of WWNs and aliases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checks zones for for multiple initiators. In peer zones, it only checks to ensure </t>
+  </si>
+  <si>
+    <t>Warn if WWNs are used in a zone. Note that best practice is for all zone members that are not d,I (mainframe) should have an alias.</t>
+  </si>
+  <si>
+    <t>This sheet is typically used when data is collected via the scripts, capture.py (which is invoked with mult_capture.py)</t>
+  </si>
+  <si>
+    <t>scc_match</t>
+  </si>
+  <si>
+    <t>Check to see if the defined and active SCC_POLICY match.</t>
+  </si>
+  <si>
+    <t>group_speed</t>
+  </si>
+  <si>
+    <t>Check to see if all ports of each group member logged in at the same speed.</t>
   </si>
 </sst>
 </file>
@@ -340,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -349,6 +377,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -633,11 +664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA3C278-D037-412F-8877-F45EB281D310}">
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -674,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,10 +716,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,92 +733,92 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="4" t="s">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="4" t="s">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -806,75 +837,75 @@
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,32 +913,32 @@
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -915,48 +946,48 @@
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -964,10 +995,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -975,10 +1006,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -986,21 +1017,21 @@
         <v>1</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="b">
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1008,10 +1039,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1019,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1030,10 +1061,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1041,10 +1072,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1052,21 +1083,21 @@
         <v>1</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1074,10 +1105,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1085,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1096,42 +1127,75 @@
         <v>0</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B51" s="4" t="s">
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="4" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A11 A35:A51 A4:A6 A26:A32 A14:A21 A54" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A38:A54 A57 A16:A24 A10:A13 A4:A7 A29:A35" xr:uid="{9F83B96B-40E9-443C-A727-CF552DB5A645}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1142,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,101 +1224,97 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="4" t="s">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="b">
         <v>1</v>
       </c>
@@ -1270,168 +1330,168 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="C21" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>56</v>
+      <c r="C25" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B28" s="4" t="s">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="4" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="4" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1439,10 +1499,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,43 +1521,26 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="b">
         <v>1</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,10 +1548,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1516,21 +1559,21 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="b">
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,10 +1592,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,21 +1603,21 @@
         <v>1</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,10 +1625,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,10 +1636,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,26 +1647,43 @@
         <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>58</v>
+      <c r="A53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,26 +1691,56 @@
         <v>1</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>77</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A26:A32 A35:A51 A54:A55 A9:A11 A4:A6 A14:A21" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A40:A56 A59 A6:A8 A18:A26 A11:A15 A31:A37" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1661,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1701,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1712,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1729,70 +1819,70 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="4" t="s">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="b">
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1800,179 +1890,720 @@
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="C17" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:A23 A38:A54 A57 A10:A12 A4:A7 A29:A35" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05F5DE3-2E7F-4C74-93C7-95532ECF0521}">
+  <dimension ref="A1:C57"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="76.5703125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1980,10 +2611,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,174 +2622,196 @@
         <v>0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B51" s="4" t="s">
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="4" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27:A32 A35:A51 A54:A55 A9:A11 A4:A6 A14:A21" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A57 A16:A24 A38:A54 A10:A13 A4:A7 A29:A35" xr:uid="{576D3783-EC0A-4017-A5A3-F4829671D3D9}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
